--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200306.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200306.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\shanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED077E82-D4D6-40EF-9261-85BB3082C5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10390,7 +10391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10861,50 +10862,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AD142"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.23046875" style="13" customWidth="1"/>
-    <col min="20" max="20" width="31.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" style="13" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.26953125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.15234375" style="13" customWidth="1"/>
-    <col min="23" max="23" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" style="13" customWidth="1"/>
+    <col min="23" max="23" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.84375" style="13"/>
+    <col min="40" max="40" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16" customHeight="1">
+    <row r="2" spans="1:40" ht="16.05" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11096,7 +11097,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="16" customHeight="1">
+    <row r="3" spans="1:40" ht="16.05" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16" customHeight="1">
+    <row r="4" spans="1:40" ht="16.05" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11238,7 +11239,7 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
     </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1">
+    <row r="5" spans="1:40" ht="16.05" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11317,7 +11318,7 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
     </row>
-    <row r="6" spans="1:40" ht="16" customHeight="1">
+    <row r="6" spans="1:40" ht="16.05" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11397,7 +11398,7 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
     </row>
-    <row r="7" spans="1:40" ht="16" customHeight="1">
+    <row r="7" spans="1:40" ht="16.05" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11473,7 +11474,7 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
     </row>
-    <row r="8" spans="1:40" ht="16" customHeight="1">
+    <row r="8" spans="1:40" ht="16.05" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11553,7 +11554,7 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
     </row>
-    <row r="9" spans="1:40" ht="16" customHeight="1">
+    <row r="9" spans="1:40" ht="16.05" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11629,7 +11630,7 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
     </row>
-    <row r="10" spans="1:40" ht="16" customHeight="1">
+    <row r="10" spans="1:40" ht="16.05" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11709,7 +11710,7 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
     </row>
-    <row r="11" spans="1:40" ht="16" customHeight="1">
+    <row r="11" spans="1:40" ht="16.05" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11785,7 +11786,7 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
     </row>
-    <row r="12" spans="1:40" ht="16" customHeight="1">
+    <row r="12" spans="1:40" ht="16.05" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11863,7 +11864,7 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
     </row>
-    <row r="13" spans="1:40" ht="16" customHeight="1">
+    <row r="13" spans="1:40" ht="16.05" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11939,7 +11940,7 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
     </row>
-    <row r="14" spans="1:40" ht="16" customHeight="1">
+    <row r="14" spans="1:40" ht="16.05" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16" customHeight="1">
+    <row r="15" spans="1:40" ht="16.05" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16" customHeight="1">
+    <row r="16" spans="1:40" ht="16.05" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -12141,7 +12142,7 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
     </row>
-    <row r="17" spans="1:40" ht="16" customHeight="1">
+    <row r="17" spans="1:40" ht="16.05" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -12221,7 +12222,7 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="1:40" ht="16" customHeight="1">
+    <row r="18" spans="1:40" ht="16.05" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -12300,7 +12301,7 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="1:40" ht="16" customHeight="1">
+    <row r="19" spans="1:40" ht="16.05" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -12378,7 +12379,7 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
     </row>
-    <row r="20" spans="1:40" ht="16" customHeight="1">
+    <row r="20" spans="1:40" ht="16.05" customHeight="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -12455,7 +12456,7 @@
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
     </row>
-    <row r="21" spans="1:40" ht="16" customHeight="1">
+    <row r="21" spans="1:40" ht="16.05" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -12533,7 +12534,7 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
     </row>
-    <row r="22" spans="1:40" ht="16" customHeight="1">
+    <row r="22" spans="1:40" ht="16.05" customHeight="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -12610,7 +12611,7 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
     </row>
-    <row r="23" spans="1:40" ht="16" customHeight="1">
+    <row r="23" spans="1:40" ht="16.05" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -12688,7 +12689,7 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
     </row>
-    <row r="24" spans="1:40" ht="16" customHeight="1">
+    <row r="24" spans="1:40" ht="16.05" customHeight="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -12765,7 +12766,7 @@
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
     </row>
-    <row r="25" spans="1:40" ht="16" customHeight="1">
+    <row r="25" spans="1:40" ht="16.05" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -12843,7 +12844,7 @@
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
     </row>
-    <row r="26" spans="1:40" ht="16" customHeight="1">
+    <row r="26" spans="1:40" ht="16.05" customHeight="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="16" customHeight="1">
+    <row r="27" spans="1:40" ht="16.05" customHeight="1">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="16" customHeight="1">
+    <row r="28" spans="1:40" ht="16.05" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="16" customHeight="1">
+    <row r="29" spans="1:40" ht="16.05" customHeight="1">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -13091,7 +13092,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="16" customHeight="1">
+    <row r="30" spans="1:40" ht="16.05" customHeight="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -13151,7 +13152,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="16" customHeight="1">
+    <row r="31" spans="1:40" ht="16.05" customHeight="1">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="16" customHeight="1">
+    <row r="32" spans="1:40" ht="16.05" customHeight="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="16" customHeight="1">
+    <row r="33" spans="1:33" ht="16.05" customHeight="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="16" customHeight="1">
+    <row r="34" spans="1:33" ht="16.05" customHeight="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="16" customHeight="1">
+    <row r="35" spans="1:33" ht="16.05" customHeight="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="16" customHeight="1">
+    <row r="36" spans="1:33" ht="16.05" customHeight="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="16" customHeight="1">
+    <row r="37" spans="1:33" ht="16.05" customHeight="1">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="16" customHeight="1">
+    <row r="38" spans="1:33" ht="16.05" customHeight="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="16" customHeight="1">
+    <row r="39" spans="1:33" ht="16.05" customHeight="1">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="16" customHeight="1">
+    <row r="40" spans="1:33" ht="16.05" customHeight="1">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="16" customHeight="1">
+    <row r="41" spans="1:33" ht="16.05" customHeight="1">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="16" customHeight="1">
+    <row r="42" spans="1:33" ht="16.05" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -13880,7 +13881,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="16" customHeight="1">
+    <row r="43" spans="1:33" ht="16.05" customHeight="1">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="16" customHeight="1">
+    <row r="44" spans="1:33" ht="16.05" customHeight="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="16" customHeight="1">
+    <row r="45" spans="1:33" ht="16.05" customHeight="1">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -14059,7 +14060,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="16" customHeight="1">
+    <row r="46" spans="1:33" ht="16.05" customHeight="1">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="16" customHeight="1">
+    <row r="47" spans="1:33" ht="16.05" customHeight="1">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="16" customHeight="1">
+    <row r="48" spans="1:33" ht="16.05" customHeight="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="16" customHeight="1">
+    <row r="49" spans="1:33" ht="16.05" customHeight="1">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="16" customHeight="1">
+    <row r="50" spans="1:33" ht="16.05" customHeight="1">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="16" customHeight="1">
+    <row r="51" spans="1:33" ht="16.05" customHeight="1">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -14430,7 +14431,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="16" customHeight="1">
+    <row r="52" spans="1:33" ht="16.05" customHeight="1">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="16" customHeight="1">
+    <row r="53" spans="1:33" ht="16.05" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="16" customHeight="1">
+    <row r="54" spans="1:33" ht="16.05" customHeight="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="16" customHeight="1">
+    <row r="55" spans="1:33" ht="16.05" customHeight="1">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="16" customHeight="1">
+    <row r="56" spans="1:33" ht="16.05" customHeight="1">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -14739,7 +14740,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="16" customHeight="1">
+    <row r="57" spans="1:33" ht="16.05" customHeight="1">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -14802,7 +14803,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="16" customHeight="1">
+    <row r="58" spans="1:33" ht="16.05" customHeight="1">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="16" customHeight="1">
+    <row r="59" spans="1:33" ht="16.05" customHeight="1">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -14921,7 +14922,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="16" customHeight="1">
+    <row r="60" spans="1:33" ht="16.05" customHeight="1">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -14983,7 +14984,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="16" customHeight="1">
+    <row r="61" spans="1:33" ht="16.05" customHeight="1">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="16" customHeight="1">
+    <row r="62" spans="1:33" ht="16.05" customHeight="1">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="16" customHeight="1">
+    <row r="63" spans="1:33" ht="16.05" customHeight="1">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="16" customHeight="1">
+    <row r="64" spans="1:33" ht="16.05" customHeight="1">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -15230,7 +15231,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="16" customHeight="1">
+    <row r="65" spans="1:33" ht="16.05" customHeight="1">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="16" customHeight="1">
+    <row r="66" spans="1:33" ht="16.05" customHeight="1">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="16" customHeight="1">
+    <row r="67" spans="1:33" ht="16.05" customHeight="1">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="16" customHeight="1">
+    <row r="68" spans="1:33" ht="16.05" customHeight="1">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -15468,7 +15469,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="16" customHeight="1">
+    <row r="69" spans="1:33" ht="16.05" customHeight="1">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="16" customHeight="1">
+    <row r="70" spans="1:33" ht="16.05" customHeight="1">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="16" customHeight="1">
+    <row r="71" spans="1:33" ht="16.05" customHeight="1">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="16" customHeight="1">
+    <row r="72" spans="1:33" ht="16.05" customHeight="1">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="16" customHeight="1">
+    <row r="73" spans="1:33" ht="16.05" customHeight="1">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="16" customHeight="1">
+    <row r="74" spans="1:33" ht="16.05" customHeight="1">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="16" customHeight="1">
+    <row r="75" spans="1:33" ht="16.05" customHeight="1">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="16" customHeight="1">
+    <row r="76" spans="1:33" ht="16.05" customHeight="1">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="16" customHeight="1">
+    <row r="77" spans="1:33" ht="16.05" customHeight="1">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -16015,7 +16016,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="16" customHeight="1">
+    <row r="78" spans="1:33" ht="16.05" customHeight="1">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="16" customHeight="1">
+    <row r="79" spans="1:33" ht="16.05" customHeight="1">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="16" customHeight="1">
+    <row r="80" spans="1:33" ht="16.05" customHeight="1">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="16" customHeight="1">
+    <row r="81" spans="1:33" ht="16.05" customHeight="1">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="16" customHeight="1">
+    <row r="82" spans="1:33" ht="16.05" customHeight="1">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -16321,7 +16322,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="16" customHeight="1">
+    <row r="83" spans="1:33" ht="16.05" customHeight="1">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -16384,7 +16385,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="16" customHeight="1">
+    <row r="84" spans="1:33" ht="16.05" customHeight="1">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -16446,7 +16447,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="16" customHeight="1">
+    <row r="85" spans="1:33" ht="16.05" customHeight="1">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="16" customHeight="1">
+    <row r="86" spans="1:33" ht="16.05" customHeight="1">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="16" customHeight="1">
+    <row r="87" spans="1:33" ht="16.05" customHeight="1">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -16631,7 +16632,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="16" customHeight="1">
+    <row r="88" spans="1:33" ht="16.05" customHeight="1">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="16" customHeight="1">
+    <row r="89" spans="1:33" ht="16.05" customHeight="1">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="16" customHeight="1">
+    <row r="90" spans="1:33" ht="16.05" customHeight="1">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -16815,7 +16816,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="16" customHeight="1">
+    <row r="91" spans="1:33" ht="16.05" customHeight="1">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -16877,7 +16878,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="16" customHeight="1">
+    <row r="92" spans="1:33" ht="16.05" customHeight="1">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="16" customHeight="1">
+    <row r="93" spans="1:33" ht="16.05" customHeight="1">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="16" customHeight="1">
+    <row r="94" spans="1:33" ht="16.05" customHeight="1">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="16" customHeight="1">
+    <row r="95" spans="1:33" ht="16.05" customHeight="1">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -17124,7 +17125,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="16" customHeight="1">
+    <row r="96" spans="1:33" ht="16.05" customHeight="1">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="16" customHeight="1">
+    <row r="97" spans="1:33" ht="16.05" customHeight="1">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="16" customHeight="1">
+    <row r="98" spans="1:33" ht="16.05" customHeight="1">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="16" customHeight="1">
+    <row r="99" spans="1:33" ht="16.05" customHeight="1">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="16" customHeight="1">
+    <row r="100" spans="1:33" ht="16.05" customHeight="1">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="16" customHeight="1">
+    <row r="101" spans="1:33" ht="16.05" customHeight="1">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="16" customHeight="1">
+    <row r="102" spans="1:33" ht="16.05" customHeight="1">
       <c r="A102" s="12">
         <v>101</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="16" customHeight="1">
+    <row r="103" spans="1:33" ht="16.05" customHeight="1">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="16" customHeight="1">
+    <row r="104" spans="1:33" ht="16.05" customHeight="1">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="16" customHeight="1">
+    <row r="105" spans="1:33" ht="16.05" customHeight="1">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -17719,7 +17720,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="16" customHeight="1">
+    <row r="106" spans="1:33" ht="16.05" customHeight="1">
       <c r="A106" s="12">
         <v>105</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="16" customHeight="1">
+    <row r="107" spans="1:33" ht="16.05" customHeight="1">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="16" customHeight="1">
+    <row r="108" spans="1:33" ht="16.05" customHeight="1">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -17904,7 +17905,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="16" customHeight="1">
+    <row r="109" spans="1:33" ht="16.05" customHeight="1">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -17964,7 +17965,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="16" customHeight="1">
+    <row r="110" spans="1:33" ht="16.05" customHeight="1">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -18023,7 +18024,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="16" customHeight="1">
+    <row r="111" spans="1:33" ht="16.05" customHeight="1">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="16" customHeight="1">
+    <row r="112" spans="1:33" ht="16.05" customHeight="1">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="16" customHeight="1">
+    <row r="113" spans="1:33" ht="16.05" customHeight="1">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -18202,7 +18203,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="16" customHeight="1">
+    <row r="114" spans="1:33" ht="16.05" customHeight="1">
       <c r="A114" s="12">
         <v>113</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="16" customHeight="1">
+    <row r="115" spans="1:33" ht="16.05" customHeight="1">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -18321,7 +18322,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="16" customHeight="1">
+    <row r="116" spans="1:33" ht="16.05" customHeight="1">
       <c r="A116" s="12">
         <v>115</v>
       </c>
@@ -18380,7 +18381,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="16" customHeight="1">
+    <row r="117" spans="1:33" ht="16.05" customHeight="1">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -18443,7 +18444,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="16" customHeight="1">
+    <row r="118" spans="1:33" ht="16.05" customHeight="1">
       <c r="A118" s="12">
         <v>117</v>
       </c>
@@ -18505,7 +18506,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="16" customHeight="1">
+    <row r="119" spans="1:33" ht="16.05" customHeight="1">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -18565,7 +18566,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="16" customHeight="1">
+    <row r="120" spans="1:33" ht="16.05" customHeight="1">
       <c r="A120" s="12">
         <v>119</v>
       </c>
@@ -18624,7 +18625,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="16" customHeight="1">
+    <row r="121" spans="1:33" ht="16.05" customHeight="1">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -18684,7 +18685,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="16" customHeight="1">
+    <row r="122" spans="1:33" ht="16.05" customHeight="1">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -18743,7 +18744,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="16" customHeight="1">
+    <row r="123" spans="1:33" ht="16.05" customHeight="1">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="16" customHeight="1">
+    <row r="124" spans="1:33" ht="16.05" customHeight="1">
       <c r="A124" s="12">
         <v>123</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="16" customHeight="1">
+    <row r="125" spans="1:33" ht="16.05" customHeight="1">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -18922,7 +18923,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="16" customHeight="1">
+    <row r="126" spans="1:33" ht="16.05" customHeight="1">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -18984,7 +18985,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="16" customHeight="1">
+    <row r="127" spans="1:33" ht="16.05" customHeight="1">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -19047,7 +19048,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="16" customHeight="1">
+    <row r="128" spans="1:33" ht="16.05" customHeight="1">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -19110,7 +19111,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="16" customHeight="1">
+    <row r="129" spans="1:33" ht="16.05" customHeight="1">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -19172,7 +19173,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="16" customHeight="1">
+    <row r="130" spans="1:33" ht="16.05" customHeight="1">
       <c r="A130" s="12">
         <v>129</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="16" customHeight="1">
+    <row r="131" spans="1:33" ht="16.05" customHeight="1">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -19291,7 +19292,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="16" customHeight="1">
+    <row r="132" spans="1:33" ht="16.05" customHeight="1">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="16" customHeight="1">
+    <row r="133" spans="1:33" ht="16.05" customHeight="1">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -19410,7 +19411,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="16" customHeight="1">
+    <row r="134" spans="1:33" ht="16.05" customHeight="1">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -19470,7 +19471,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="16" customHeight="1">
+    <row r="135" spans="1:33" ht="16.05" customHeight="1">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -19529,7 +19530,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="16" customHeight="1">
+    <row r="136" spans="1:33" ht="16.05" customHeight="1">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -19589,7 +19590,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="16" customHeight="1">
+    <row r="137" spans="1:33" ht="16.05" customHeight="1">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -19648,7 +19649,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="16" customHeight="1">
+    <row r="138" spans="1:33" ht="16.05" customHeight="1">
       <c r="A138" s="12">
         <v>137</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="16" customHeight="1">
+    <row r="139" spans="1:33" ht="16.05" customHeight="1">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -19770,7 +19771,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="16" customHeight="1">
+    <row r="140" spans="1:33" ht="16.05" customHeight="1">
       <c r="A140" s="12">
         <v>139</v>
       </c>
@@ -19830,7 +19831,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="16" customHeight="1">
+    <row r="141" spans="1:33" ht="16.05" customHeight="1">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -19892,7 +19893,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="16" customHeight="1">
+    <row r="142" spans="1:33" ht="16.05" customHeight="1">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -19983,336 +19984,336 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="58">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 H4:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 H4:H13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45 H53 H132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45 H53 H132" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H136 H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H136 H27" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32 H40 H61 H92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32 H40 H61 H92" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41 H49 H62 H77 H127:H128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41 H49 H62 H77 H127:H128" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H42 H50 H129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H42 H50 H129" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H38 H59 H74 H90 H124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H38 H59 H74 H90 H124" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($G34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43 H51 H64 H130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43 H51 H64 H130" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99 H80 H114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99 H80 H114" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H39 H60 H75 H125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H39 H60 H75 H125" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69 H104 H85 H119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69 H104 H85 H119" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H54 H133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H54 H133" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56 H48 H135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56 H48 H135" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H15 H44 H52 H131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H15 H44 H52 H131" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>INDIRECT($G15)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108 H29 H37 H58 H73 H89 H123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108 H29 H37 H58 H73 H89 H123" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G55 G106:G107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G55 G106:G107" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>INDIRECT($F34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>INDIRECT($G64)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>INDIRECT($G77)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70 H105 H86 H120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70 H105 H86 H120" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67 H102 H83 H117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67 H102 H83 H117" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H71 H87 H106 H121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H71 H87 H106 H121" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68 H103 H84 H118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68 H103 H84 H118" xr:uid="{00000000-0002-0000-0000-000017000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H36 H57 H72 H88 H122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H36 H57 H72 H88 H122" xr:uid="{00000000-0002-0000-0000-000018000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{00000000-0002-0000-0000-000019000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65 H100 H81 H115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65 H100 H81 H115" xr:uid="{00000000-0002-0000-0000-00001A000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30 H66 H101 H82 H116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30 H66 H101 H82 H116" xr:uid="{00000000-0002-0000-0000-00001B000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22" xr:uid="{00000000-0002-0000-0000-00001C000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93" xr:uid="{00000000-0002-0000-0000-00001D000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95 H110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95 H110" xr:uid="{00000000-0002-0000-0000-00001E000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H96 H111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H96 H111" xr:uid="{00000000-0002-0000-0000-00001F000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98 H79 H113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98 H79 H113" xr:uid="{00000000-0002-0000-0000-000020000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G105 G123:G126 G142:H142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G105 G123:G126 G142:H142" xr:uid="{00000000-0002-0000-0000-000021000000}">
       <formula1>INDIRECT($F77)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23" xr:uid="{00000000-0002-0000-0000-000022000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25" xr:uid="{00000000-0002-0000-0000-000023000000}">
       <formula1>INDIRECT($G142)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H140" xr:uid="{00000000-0002-0000-0000-000024000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139" xr:uid="{00000000-0002-0000-0000-000025000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H138" xr:uid="{00000000-0002-0000-0000-000026000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H137" xr:uid="{00000000-0002-0000-0000-000027000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127:G141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127:G141" xr:uid="{00000000-0002-0000-0000-000028000000}">
       <formula1>INDIRECT($F108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G89:G91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G89:G91" xr:uid="{00000000-0002-0000-0000-000029000000}">
       <formula1>INDIRECT($F3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-00002A000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-00002B000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-00002C000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-00002D000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-00002E000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H47 H63 H126 H26 H33 H55 H76 H91 H107 H141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H47 H63 H126 H26 H33 H55 H76 H91 H107 H141" xr:uid="{00000000-0002-0000-0000-00002F000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G34:G39 G71:G76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G34:G39 G71:G76" xr:uid="{00000000-0002-0000-0000-000030000000}">
       <formula1>INDIRECT($F27)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64:G70 G56:G62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64:G70 G56:G62" xr:uid="{00000000-0002-0000-0000-000031000000}">
       <formula1>INDIRECT($F48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97 H78 H112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97 H78 H112" xr:uid="{00000000-0002-0000-0000-000032000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40:G47" xr:uid="{00000000-0002-0000-0000-000033000000}">
       <formula1>INDIRECT($F34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77:G88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77:G88" xr:uid="{00000000-0002-0000-0000-000034000000}">
       <formula1>INDIRECT($F64)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94 H109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94 H109" xr:uid="{00000000-0002-0000-0000-000035000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G122" xr:uid="{00000000-0002-0000-0000-000036000000}">
       <formula1>INDIRECT($F92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134" xr:uid="{00000000-0002-0000-0000-000037000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G143:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G143:G1048576" xr:uid="{00000000-0002-0000-0000-000038000000}">
       <formula1>INDIRECT($F143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143:H1048576" xr:uid="{00000000-0002-0000-0000-000039000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3" r:id="rId2"/>
-    <hyperlink ref="V4" r:id="rId3"/>
-    <hyperlink ref="V6" r:id="rId4"/>
-    <hyperlink ref="V8" r:id="rId5"/>
-    <hyperlink ref="V10" r:id="rId6"/>
-    <hyperlink ref="V12" r:id="rId7"/>
-    <hyperlink ref="V14" r:id="rId8"/>
-    <hyperlink ref="V16" r:id="rId9"/>
-    <hyperlink ref="V18" r:id="rId10"/>
-    <hyperlink ref="V20" r:id="rId11"/>
-    <hyperlink ref="V22" r:id="rId12"/>
-    <hyperlink ref="V24" r:id="rId13"/>
-    <hyperlink ref="V26" r:id="rId14"/>
-    <hyperlink ref="V28" r:id="rId15"/>
-    <hyperlink ref="V30" r:id="rId16"/>
-    <hyperlink ref="V32" r:id="rId17"/>
-    <hyperlink ref="V34" r:id="rId18"/>
-    <hyperlink ref="V36" r:id="rId19"/>
-    <hyperlink ref="V38" r:id="rId20"/>
-    <hyperlink ref="V40" r:id="rId21"/>
-    <hyperlink ref="V42" r:id="rId22"/>
-    <hyperlink ref="V44" r:id="rId23"/>
-    <hyperlink ref="V46" r:id="rId24"/>
-    <hyperlink ref="V48" r:id="rId25"/>
-    <hyperlink ref="V50" r:id="rId26"/>
-    <hyperlink ref="V52" r:id="rId27"/>
-    <hyperlink ref="V54" r:id="rId28"/>
-    <hyperlink ref="V56" r:id="rId29"/>
-    <hyperlink ref="V58" r:id="rId30"/>
-    <hyperlink ref="V60" r:id="rId31"/>
-    <hyperlink ref="V62" r:id="rId32"/>
-    <hyperlink ref="V64" r:id="rId33"/>
-    <hyperlink ref="V66" r:id="rId34"/>
-    <hyperlink ref="V68" r:id="rId35"/>
-    <hyperlink ref="V70" r:id="rId36"/>
-    <hyperlink ref="V72" r:id="rId37"/>
-    <hyperlink ref="V74" r:id="rId38"/>
-    <hyperlink ref="V76" r:id="rId39"/>
-    <hyperlink ref="V78" r:id="rId40"/>
-    <hyperlink ref="V80" r:id="rId41"/>
-    <hyperlink ref="V82" r:id="rId42"/>
-    <hyperlink ref="V84" r:id="rId43"/>
-    <hyperlink ref="V86" r:id="rId44"/>
-    <hyperlink ref="V88" r:id="rId45"/>
-    <hyperlink ref="V90" r:id="rId46"/>
-    <hyperlink ref="V92" r:id="rId47"/>
-    <hyperlink ref="V94" r:id="rId48"/>
-    <hyperlink ref="V96" r:id="rId49"/>
-    <hyperlink ref="V98" r:id="rId50"/>
-    <hyperlink ref="V100" r:id="rId51"/>
-    <hyperlink ref="V102" r:id="rId52"/>
-    <hyperlink ref="V104" r:id="rId53"/>
-    <hyperlink ref="V106" r:id="rId54"/>
-    <hyperlink ref="V108" r:id="rId55"/>
-    <hyperlink ref="V110" r:id="rId56"/>
-    <hyperlink ref="V112" r:id="rId57"/>
-    <hyperlink ref="V114" r:id="rId58"/>
-    <hyperlink ref="V116" r:id="rId59"/>
-    <hyperlink ref="V118" r:id="rId60"/>
-    <hyperlink ref="V120" r:id="rId61"/>
-    <hyperlink ref="V122" r:id="rId62"/>
-    <hyperlink ref="V124" r:id="rId63"/>
-    <hyperlink ref="V126" r:id="rId64"/>
-    <hyperlink ref="V128" r:id="rId65"/>
-    <hyperlink ref="V130" r:id="rId66"/>
-    <hyperlink ref="V132" r:id="rId67"/>
-    <hyperlink ref="V134" r:id="rId68"/>
-    <hyperlink ref="V136" r:id="rId69"/>
-    <hyperlink ref="V138" r:id="rId70"/>
-    <hyperlink ref="V140" r:id="rId71"/>
-    <hyperlink ref="V142" r:id="rId72"/>
-    <hyperlink ref="V5" r:id="rId73"/>
-    <hyperlink ref="V7" r:id="rId74"/>
-    <hyperlink ref="V9" r:id="rId75"/>
-    <hyperlink ref="V11" r:id="rId76"/>
-    <hyperlink ref="V13" r:id="rId77"/>
-    <hyperlink ref="V15" r:id="rId78"/>
-    <hyperlink ref="V17" r:id="rId79"/>
-    <hyperlink ref="V19" r:id="rId80"/>
-    <hyperlink ref="V21" r:id="rId81"/>
-    <hyperlink ref="V23" r:id="rId82"/>
-    <hyperlink ref="V25" r:id="rId83"/>
-    <hyperlink ref="V27" r:id="rId84"/>
-    <hyperlink ref="V29" r:id="rId85"/>
-    <hyperlink ref="V31" r:id="rId86"/>
-    <hyperlink ref="V33" r:id="rId87"/>
-    <hyperlink ref="V35" r:id="rId88"/>
-    <hyperlink ref="V37" r:id="rId89"/>
-    <hyperlink ref="V39" r:id="rId90"/>
-    <hyperlink ref="V41" r:id="rId91"/>
-    <hyperlink ref="V43" r:id="rId92"/>
-    <hyperlink ref="V45" r:id="rId93"/>
-    <hyperlink ref="V47" r:id="rId94"/>
-    <hyperlink ref="V49" r:id="rId95"/>
-    <hyperlink ref="V51" r:id="rId96"/>
-    <hyperlink ref="V53" r:id="rId97"/>
-    <hyperlink ref="V55" r:id="rId98"/>
-    <hyperlink ref="V57" r:id="rId99"/>
-    <hyperlink ref="V59" r:id="rId100"/>
-    <hyperlink ref="V61" r:id="rId101"/>
-    <hyperlink ref="V63" r:id="rId102"/>
-    <hyperlink ref="V65" r:id="rId103"/>
-    <hyperlink ref="V67" r:id="rId104"/>
-    <hyperlink ref="V69" r:id="rId105"/>
-    <hyperlink ref="V71" r:id="rId106"/>
-    <hyperlink ref="V73" r:id="rId107"/>
-    <hyperlink ref="V75" r:id="rId108"/>
-    <hyperlink ref="V77" r:id="rId109"/>
-    <hyperlink ref="V79" r:id="rId110"/>
-    <hyperlink ref="V81" r:id="rId111"/>
-    <hyperlink ref="V83" r:id="rId112"/>
-    <hyperlink ref="V85" r:id="rId113"/>
-    <hyperlink ref="V87" r:id="rId114"/>
-    <hyperlink ref="V89" r:id="rId115"/>
-    <hyperlink ref="V91" r:id="rId116"/>
-    <hyperlink ref="V93" r:id="rId117"/>
-    <hyperlink ref="V95" r:id="rId118"/>
-    <hyperlink ref="V97" r:id="rId119"/>
-    <hyperlink ref="V99" r:id="rId120"/>
-    <hyperlink ref="V101" r:id="rId121"/>
-    <hyperlink ref="V103" r:id="rId122"/>
-    <hyperlink ref="V105" r:id="rId123"/>
-    <hyperlink ref="V107" r:id="rId124"/>
-    <hyperlink ref="V109" r:id="rId125"/>
-    <hyperlink ref="V111" r:id="rId126"/>
-    <hyperlink ref="V113" r:id="rId127"/>
-    <hyperlink ref="V115" r:id="rId128"/>
-    <hyperlink ref="V117" r:id="rId129"/>
-    <hyperlink ref="V119" r:id="rId130"/>
-    <hyperlink ref="V121" r:id="rId131"/>
-    <hyperlink ref="V123" r:id="rId132"/>
-    <hyperlink ref="V125" r:id="rId133"/>
-    <hyperlink ref="V127" r:id="rId134"/>
-    <hyperlink ref="V129" r:id="rId135"/>
-    <hyperlink ref="V131" r:id="rId136"/>
-    <hyperlink ref="V133" r:id="rId137"/>
-    <hyperlink ref="V135" r:id="rId138"/>
-    <hyperlink ref="V137" r:id="rId139"/>
-    <hyperlink ref="V139" r:id="rId140"/>
-    <hyperlink ref="V141" r:id="rId141"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="V36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="V40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="V46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="V48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="V52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="V54" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="V58" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="V60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="V64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="V66" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V68" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="V70" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="V72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V74" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="V76" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="V78" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="V82" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="V84" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V86" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="V88" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V90" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V92" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="V94" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="V96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="V100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="V102" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V104" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="V106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="V108" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="V110" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="V112" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="V114" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="V116" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="V118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="V120" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="V122" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="V124" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="V126" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="V128" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="V130" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="V132" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="V134" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="V136" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="V138" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="V140" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="V142" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="V5" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="V7" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="V9" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="V11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="V13" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="V15" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="V17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="V19" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="V21" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="V23" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="V25" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="V27" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="V29" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="V31" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="V33" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="V35" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="V37" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="V39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="V41" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="V43" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="V45" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="V47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="V49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="V51" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="V53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="V55" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="V57" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="V59" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="V61" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="V63" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="V65" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="V67" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="V69" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="V71" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="V73" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="V75" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="V77" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="V79" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="V81" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="V83" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="V85" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="V87" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="V89" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="V91" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="V93" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="V95" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="V97" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="V99" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="V101" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="V103" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="V105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="V107" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="V109" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="V111" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="V113" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="V115" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="V117" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="V119" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="V121" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="V123" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="V125" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="V127" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="V129" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="V131" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="V133" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="V135" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="V137" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="V139" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="V141" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId142"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-00003A000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
           <xm:sqref>F143:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-00003B000000}">
           <x14:formula1>
             <xm:f>'C:\Users\15651\Desktop\[1.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
@@ -20325,7 +20326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -20333,10 +20334,10 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
